--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1737551.984866493</v>
+        <v>-1740128.306347734</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>267.1758329068651</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>77.97736515780272</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>8.634224069621069</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>101.8993249944583</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>133.3353942071046</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -911,7 +911,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>216.6571241919107</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,22 +1054,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>120.6073236808684</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>130.4060921015527</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,13 +1139,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>312.870021405732</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>84.36427925043516</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1339,16 +1339,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>103.2738838391902</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>44.85669415427827</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.0367616438424</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,13 +1582,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>158.4589496224489</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>114.2935157990533</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>139.188673966789</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,10 +1847,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>41.0268615655026</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U22" t="n">
-        <v>249.0584607366399</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2321,13 +2321,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>158.4589496224476</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8253826161913385</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308917</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261728</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
         <v>124.3308255261727</v>
@@ -3907,16 +3907,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2038.144201386632</v>
+        <v>1887.813801820606</v>
       </c>
       <c r="C2" t="n">
-        <v>1669.181684446221</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>1310.91598583947</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4319,34 +4319,34 @@
         <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839474</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052369</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450754</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y2" t="n">
-        <v>2424.744041450754</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686064</v>
+        <v>936.5735814686088</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106474</v>
+        <v>846.0716871064765</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508012</v>
+        <v>827.0643955080142</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
         <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>340.2620686932818</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>340.2620686932818</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>340.2620686932818</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>340.2620686932818</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>340.2620686932818</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>172.5592320680007</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>471.3317757503529</v>
+        <v>471.3317757503526</v>
       </c>
       <c r="M4" t="n">
-        <v>638.7642570495508</v>
+        <v>638.7642570495505</v>
       </c>
       <c r="N4" t="n">
-        <v>810.0730940793984</v>
+        <v>810.0730940793979</v>
       </c>
       <c r="O4" t="n">
-        <v>947.9914432975883</v>
+        <v>947.9914432975877</v>
       </c>
       <c r="P4" t="n">
-        <v>1055.037596261243</v>
+        <v>1055.037596261249</v>
       </c>
       <c r="Q4" t="n">
-        <v>1132.647892413758</v>
+        <v>1132.647892413764</v>
       </c>
       <c r="R4" t="n">
-        <v>1042.817435171286</v>
+        <v>1132.647892413764</v>
       </c>
       <c r="S4" t="n">
-        <v>851.1315509981122</v>
+        <v>1132.647892413764</v>
       </c>
       <c r="T4" t="n">
-        <v>629.3649355676382</v>
+        <v>1132.647892413764</v>
       </c>
       <c r="U4" t="n">
-        <v>340.2620686932818</v>
+        <v>1132.647892413764</v>
       </c>
       <c r="V4" t="n">
-        <v>340.2620686932818</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="W4" t="n">
-        <v>340.2620686932818</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="X4" t="n">
-        <v>340.2620686932818</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y4" t="n">
-        <v>340.2620686932818</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>2266.429418274561</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1897.466901334149</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1539.201202727399</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1153.412950129155</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>742.4270453395472</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>327.3545951845437</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923659</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653545</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X5" t="n">
-        <v>2182.266054653545</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="Y5" t="n">
-        <v>2182.266054653545</v>
+        <v>2266.429418274561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.5487792519424</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C7" t="n">
-        <v>530.5487792519424</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4321398396067</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396067</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1302.186011766748</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>1302.186011766748</v>
       </c>
       <c r="W7" t="n">
-        <v>1071.910120335303</v>
+        <v>1012.768841729788</v>
       </c>
       <c r="X7" t="n">
-        <v>843.9205694372858</v>
+        <v>784.7792908317705</v>
       </c>
       <c r="Y7" t="n">
-        <v>712.1972440821821</v>
+        <v>563.9867116882403</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495403</v>
+        <v>1675.730933054506</v>
       </c>
       <c r="C8" t="n">
-        <v>758.7856865549913</v>
+        <v>1306.768416114094</v>
       </c>
       <c r="D8" t="n">
-        <v>400.5199879482408</v>
+        <v>948.5027175073435</v>
       </c>
       <c r="E8" t="n">
-        <v>84.48966329598633</v>
+        <v>562.7144649090992</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678286</v>
+        <v>151.7285601194916</v>
       </c>
       <c r="G8" t="n">
         <v>66.5121164321834</v>
@@ -4829,25 +4829,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796416</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535336</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559525</v>
+        <v>2062.330773118627</v>
       </c>
     </row>
     <row r="9">
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D10" t="n">
         <v>675.2351809199101</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1733.147036463</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1511.380421032527</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1222.27755415817</v>
+        <v>1378.701799167344</v>
       </c>
       <c r="V10" t="n">
-        <v>1222.27755415817</v>
+        <v>1124.017310961457</v>
       </c>
       <c r="W10" t="n">
-        <v>1222.27755415817</v>
+        <v>1124.017310961457</v>
       </c>
       <c r="X10" t="n">
-        <v>994.2880032601528</v>
+        <v>896.0277600634403</v>
       </c>
       <c r="Y10" t="n">
-        <v>994.2880032601528</v>
+        <v>675.2351809199101</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,13 +5057,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5130,10 +5130,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.345997432838</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C13" t="n">
-        <v>923.4098145049311</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D13" t="n">
-        <v>773.2931750925953</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E13" t="n">
-        <v>625.3800815102022</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F13" t="n">
-        <v>478.4901340122918</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>311.2940347271718</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510512</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510512</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304625</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.776592304625</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.787041406608</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.994462263078</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5300,25 +5300,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.469384076044</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.867919098985</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.792692443183</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1501.108204237296</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="17">
@@ -5492,10 +5492,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.3099000622266</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3737171343197</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>597.2570777219839</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>449.3439841395908</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>302.4540366416804</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>135.2579373565604</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1546.740494934014</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1318.750944035996</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1097.958364892466</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5768,34 +5768,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>551.354624631591</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1725.886877746226</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1471.202389540339</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1181.785219503378</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>953.7956686053609</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>733.0030894618308</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5966,13 +5966,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,37 +5999,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,34 +6239,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6315,10 +6315,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474266</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>261.8464821474266</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.8464821474266</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>94.65038286230657</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6607,25 +6607,25 @@
         <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>119.2902967703784</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6838,16 +6838,16 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6929,43 +6929,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319329</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7318,13 +7318,13 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7336,34 +7336,34 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>94.56320294380271</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>244.2098454714574</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
         <v>782.551295565682</v>
@@ -7795,22 +7795,22 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,10 +7825,10 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547835</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-7.281141833757809e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>8.176919404945394</v>
+        <v>8.176919404952031</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>98.09705886414241</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>303.953004914459</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>136.1207908446997</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,19 +22750,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>150.2383183293697</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>6.257951202381491</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>127.7255247667952</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23701,22 +23701,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>66.73277020259125</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>112.948969357039</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>99.26785128072126</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U22" t="n">
-        <v>37.12601365260423</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>7.065188669821254</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H28" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99467.00901045147</v>
+        <v>99467.00901045145</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3415.825872823242</v>
+        <v>3415.825872823373</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
         <v>93403.78684820636</v>
@@ -26427,19 +26427,19 @@
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
+        <v>14216.75207685506</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14216.75207685507</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14216.75207685508</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14216.75207685507</v>
+      </c>
+      <c r="J4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14216.75207685503</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14216.75207685503</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14216.75207685501</v>
       </c>
       <c r="K4" t="n">
         <v>22207.61133994851</v>
@@ -26448,16 +26448,16 @@
         <v>22207.61133994851</v>
       </c>
       <c r="M4" t="n">
-        <v>22207.61133994849</v>
+        <v>22207.61133994852</v>
       </c>
       <c r="N4" t="n">
+        <v>22207.61133994852</v>
+      </c>
+      <c r="O4" t="n">
         <v>22207.61133994851</v>
       </c>
-      <c r="O4" t="n">
-        <v>22207.6113399485</v>
-      </c>
       <c r="P4" t="n">
-        <v>22207.6113399485</v>
+        <v>22207.61133994852</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1340627.503151358</v>
+        <v>-1341022.324092511</v>
       </c>
       <c r="C6" t="n">
+        <v>-78181.46192995716</v>
+      </c>
+      <c r="D6" t="n">
         <v>-78181.46192995711</v>
       </c>
-      <c r="D6" t="n">
-        <v>-78181.46192995713</v>
-      </c>
       <c r="E6" t="n">
-        <v>-319679.7537546167</v>
+        <v>-319714.4916800522</v>
       </c>
       <c r="F6" t="n">
-        <v>5732.708052738744</v>
+        <v>5697.970127303022</v>
       </c>
       <c r="G6" t="n">
-        <v>5732.708052738759</v>
+        <v>5697.970127303037</v>
       </c>
       <c r="H6" t="n">
-        <v>5732.708052738744</v>
+        <v>5697.970127303022</v>
       </c>
       <c r="I6" t="n">
-        <v>5732.708052738759</v>
+        <v>5697.970127303022</v>
       </c>
       <c r="J6" t="n">
-        <v>-211798.4943445388</v>
+        <v>-211833.2322699745</v>
       </c>
       <c r="K6" t="n">
-        <v>-21643.17970785328</v>
+        <v>-21643.17970785327</v>
       </c>
       <c r="L6" t="n">
         <v>-2215.461714221543</v>
       </c>
       <c r="M6" t="n">
-        <v>-87270.48964973341</v>
+        <v>-87270.4896497333</v>
       </c>
       <c r="N6" t="n">
-        <v>-2215.461714221397</v>
+        <v>-2215.461714221427</v>
       </c>
       <c r="O6" t="n">
         <v>-2215.461714221397</v>
       </c>
       <c r="P6" t="n">
-        <v>-21643.1797078532</v>
+        <v>-21643.17970785321</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26790,28 +26790,28 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>249.398447456376</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>77.95064019540973</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>165.6045145247445</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>88.17856125054212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>69.06034866652982</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>326.5574464030183</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>86.49514149225173</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>241.3551440513346</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31610,7 +31610,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>491.1355220041054</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,16 +32315,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>400.5469039565762</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32470,34 +32470,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,22 +33026,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33181,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>152.5685698206127</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>574.6535388222617</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>100.2764607028594</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,7 +34469,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840383</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>108.1274272360148</v>
+        <v>108.1274272360214</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010482</v>
+        <v>426.2724270010463</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>349.0014880820871</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,13 +35966,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>257.9506595121318</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>25.73094315394599</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>432.0572943778172</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7540807028594299</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38190,10 +38190,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
